--- a/data/norm.cause-of-death-2014.xlsx
+++ b/data/norm.cause-of-death-2014.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,90 +440,85 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -546,57 +541,54 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
         <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J2" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K2" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="L2" t="n">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="M2" t="n">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="N2" t="n">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="O2" t="n">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="P2" t="n">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="Q2" t="n">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="R2" t="n">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="S2" t="n">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="T2" t="n">
-        <v>210</v>
-      </c>
-      <c r="U2" t="n">
         <v>234</v>
       </c>
     </row>
@@ -617,57 +609,54 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E3" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F3" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H3" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="K3" t="n">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="L3" t="n">
-        <v>194</v>
+        <v>387</v>
       </c>
       <c r="M3" t="n">
-        <v>387</v>
+        <v>667</v>
       </c>
       <c r="N3" t="n">
-        <v>667</v>
+        <v>879</v>
       </c>
       <c r="O3" t="n">
-        <v>879</v>
+        <v>1228</v>
       </c>
       <c r="P3" t="n">
-        <v>1228</v>
+        <v>1174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1174</v>
+        <v>1026</v>
       </c>
       <c r="R3" t="n">
-        <v>1026</v>
+        <v>704</v>
       </c>
       <c r="S3" t="n">
-        <v>704</v>
+        <v>453</v>
       </c>
       <c r="T3" t="n">
-        <v>453</v>
-      </c>
-      <c r="U3" t="n">
         <v>302</v>
       </c>
     </row>
@@ -688,57 +677,54 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
         <v>7</v>
       </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4</v>
-      </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
+        <v>17</v>
+      </c>
+      <c r="P4" t="n">
         <v>19</v>
       </c>
-      <c r="P4" t="n">
-        <v>17</v>
-      </c>
       <c r="Q4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R4" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="S4" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
-      </c>
-      <c r="U4" t="n">
         <v>22</v>
       </c>
     </row>
@@ -759,57 +745,54 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
         <v>9</v>
       </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6</v>
-      </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K5" t="n">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="L5" t="n">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="M5" t="n">
-        <v>168</v>
+        <v>331</v>
       </c>
       <c r="N5" t="n">
-        <v>331</v>
+        <v>519</v>
       </c>
       <c r="O5" t="n">
-        <v>519</v>
+        <v>686</v>
       </c>
       <c r="P5" t="n">
-        <v>686</v>
+        <v>899</v>
       </c>
       <c r="Q5" t="n">
-        <v>899</v>
+        <v>866</v>
       </c>
       <c r="R5" t="n">
-        <v>866</v>
+        <v>678</v>
       </c>
       <c r="S5" t="n">
-        <v>678</v>
+        <v>521</v>
       </c>
       <c r="T5" t="n">
-        <v>521</v>
-      </c>
-      <c r="U5" t="n">
         <v>459</v>
       </c>
     </row>
@@ -833,54 +816,51 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N6" t="n">
         <v>18</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="R6" t="n">
         <v>7</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
-      </c>
-      <c r="U6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -901,57 +881,54 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L7" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="N7" t="n">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="O7" t="n">
-        <v>214</v>
+        <v>414</v>
       </c>
       <c r="P7" t="n">
-        <v>414</v>
+        <v>681</v>
       </c>
       <c r="Q7" t="n">
-        <v>681</v>
+        <v>954</v>
       </c>
       <c r="R7" t="n">
-        <v>954</v>
+        <v>1023</v>
       </c>
       <c r="S7" t="n">
-        <v>1023</v>
+        <v>977</v>
       </c>
       <c r="T7" t="n">
-        <v>977</v>
-      </c>
-      <c r="U7" t="n">
         <v>1072</v>
       </c>
     </row>
@@ -990,25 +967,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1017,12 +994,9 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,16 +1044,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1091,9 +1065,6 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1114,57 +1085,54 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G10" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="H10" t="n">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I10" t="n">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J10" t="n">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="K10" t="n">
-        <v>228</v>
+        <v>427</v>
       </c>
       <c r="L10" t="n">
-        <v>427</v>
+        <v>849</v>
       </c>
       <c r="M10" t="n">
-        <v>849</v>
+        <v>1397</v>
       </c>
       <c r="N10" t="n">
-        <v>1397</v>
+        <v>1841</v>
       </c>
       <c r="O10" t="n">
-        <v>1841</v>
+        <v>2501</v>
       </c>
       <c r="P10" t="n">
-        <v>2501</v>
+        <v>2801</v>
       </c>
       <c r="Q10" t="n">
-        <v>2801</v>
+        <v>2656</v>
       </c>
       <c r="R10" t="n">
-        <v>2656</v>
+        <v>2375</v>
       </c>
       <c r="S10" t="n">
-        <v>2375</v>
+        <v>1877</v>
       </c>
       <c r="T10" t="n">
-        <v>1877</v>
-      </c>
-      <c r="U10" t="n">
         <v>1814</v>
       </c>
     </row>
@@ -1185,57 +1153,54 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="L11" t="n">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="M11" t="n">
-        <v>172</v>
+        <v>339</v>
       </c>
       <c r="N11" t="n">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="O11" t="n">
-        <v>447</v>
+        <v>742</v>
       </c>
       <c r="P11" t="n">
-        <v>742</v>
+        <v>928</v>
       </c>
       <c r="Q11" t="n">
-        <v>928</v>
+        <v>1168</v>
       </c>
       <c r="R11" t="n">
-        <v>1168</v>
+        <v>1140</v>
       </c>
       <c r="S11" t="n">
-        <v>1140</v>
+        <v>1054</v>
       </c>
       <c r="T11" t="n">
-        <v>1054</v>
-      </c>
-      <c r="U11" t="n">
         <v>1112</v>
       </c>
     </row>
@@ -1256,57 +1221,54 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
         <v>16</v>
       </c>
-      <c r="E12" t="n">
-        <v>11</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
       <c r="I12" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K12" t="n">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="L12" t="n">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="M12" t="n">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="N12" t="n">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="O12" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P12" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="Q12" t="n">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="R12" t="n">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="S12" t="n">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="T12" t="n">
-        <v>79</v>
-      </c>
-      <c r="U12" t="n">
         <v>90</v>
       </c>
     </row>
@@ -1336,48 +1298,45 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q13" t="n">
+        <v>15</v>
+      </c>
+      <c r="R13" t="n">
+        <v>11</v>
+      </c>
+      <c r="S13" t="n">
         <v>13</v>
       </c>
-      <c r="R13" t="n">
-        <v>15</v>
-      </c>
-      <c r="S13" t="n">
-        <v>11</v>
-      </c>
       <c r="T13" t="n">
-        <v>13</v>
-      </c>
-      <c r="U13" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1398,57 +1357,54 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7</v>
+      </c>
+      <c r="P14" t="n">
         <v>2</v>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>7</v>
-      </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1469,57 +1425,54 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
         <v>10</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I15" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J15" t="n">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="K15" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L15" t="n">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="N15" t="n">
-        <v>267</v>
+        <v>358</v>
       </c>
       <c r="O15" t="n">
-        <v>358</v>
+        <v>449</v>
       </c>
       <c r="P15" t="n">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="Q15" t="n">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="R15" t="n">
-        <v>451</v>
+        <v>353</v>
       </c>
       <c r="S15" t="n">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="T15" t="n">
-        <v>309</v>
-      </c>
-      <c r="U15" t="n">
         <v>292</v>
       </c>
     </row>
@@ -1590,9 +1543,6 @@
       <c r="T16" t="n">
         <v>0</v>
       </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1611,7 +1561,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1659,9 +1609,6 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,57 +1629,54 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>499</v>
+        <v>108</v>
       </c>
       <c r="E18" t="n">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
         <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H18" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>17</v>
+      </c>
+      <c r="M18" t="n">
         <v>8</v>
       </c>
-      <c r="J18" t="n">
-        <v>13</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="N18" t="n">
         <v>10</v>
       </c>
-      <c r="L18" t="n">
-        <v>5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>17</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
         <v>8</v>
       </c>
-      <c r="O18" t="n">
-        <v>10</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
       <c r="Q18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
-      </c>
-      <c r="U18" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1753,57 +1697,54 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I19" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J19" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="L19" t="n">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="M19" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="N19" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="O19" t="n">
-        <v>185</v>
+        <v>322</v>
       </c>
       <c r="P19" t="n">
-        <v>322</v>
+        <v>555</v>
       </c>
       <c r="Q19" t="n">
-        <v>555</v>
+        <v>1087</v>
       </c>
       <c r="R19" t="n">
-        <v>1087</v>
+        <v>1388</v>
       </c>
       <c r="S19" t="n">
-        <v>1388</v>
+        <v>2088</v>
       </c>
       <c r="T19" t="n">
-        <v>2088</v>
-      </c>
-      <c r="U19" t="n">
         <v>3373</v>
       </c>
     </row>
@@ -1824,57 +1765,54 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="E20" t="n">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F20" t="n">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="G20" t="n">
-        <v>334</v>
+        <v>498</v>
       </c>
       <c r="H20" t="n">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="I20" t="n">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="J20" t="n">
-        <v>586</v>
+        <v>533</v>
       </c>
       <c r="K20" t="n">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="L20" t="n">
-        <v>513</v>
+        <v>619</v>
       </c>
       <c r="M20" t="n">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="N20" t="n">
-        <v>597</v>
+        <v>692</v>
       </c>
       <c r="O20" t="n">
-        <v>692</v>
+        <v>535</v>
       </c>
       <c r="P20" t="n">
-        <v>535</v>
+        <v>472</v>
       </c>
       <c r="Q20" t="n">
-        <v>472</v>
+        <v>335</v>
       </c>
       <c r="R20" t="n">
-        <v>335</v>
+        <v>246</v>
       </c>
       <c r="S20" t="n">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="T20" t="n">
-        <v>178</v>
-      </c>
-      <c r="U20" t="n">
         <v>173</v>
       </c>
     </row>
@@ -1895,57 +1833,54 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="G21" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H21" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I21" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K21" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L21" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1960,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1986,95 +1921,90 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -2097,60 +2027,57 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17</v>
+      </c>
+      <c r="H2" t="n">
         <v>23</v>
       </c>
-      <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>13</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17</v>
-      </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
         <v>40</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="N2" t="n">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="O2" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P2" t="n">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="Q2" t="n">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="R2" t="n">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S2" t="n">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="T2" t="n">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="U2" t="n">
-        <v>189</v>
-      </c>
-      <c r="V2" t="n">
         <v>255</v>
       </c>
     </row>
@@ -2171,60 +2098,57 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" t="n">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="K3" t="n">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="L3" t="n">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="M3" t="n">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="N3" t="n">
-        <v>351</v>
+        <v>566</v>
       </c>
       <c r="O3" t="n">
-        <v>566</v>
+        <v>708</v>
       </c>
       <c r="P3" t="n">
-        <v>708</v>
+        <v>869</v>
       </c>
       <c r="Q3" t="n">
-        <v>869</v>
+        <v>890</v>
       </c>
       <c r="R3" t="n">
-        <v>890</v>
+        <v>791</v>
       </c>
       <c r="S3" t="n">
-        <v>791</v>
+        <v>615</v>
       </c>
       <c r="T3" t="n">
-        <v>615</v>
+        <v>370</v>
       </c>
       <c r="U3" t="n">
-        <v>370</v>
-      </c>
-      <c r="V3" t="n">
         <v>260</v>
       </c>
     </row>
@@ -2245,60 +2169,57 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
         <v>3</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
         <v>4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="n">
         <v>7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10</v>
       </c>
       <c r="N4" t="n">
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U4" t="n">
-        <v>19</v>
-      </c>
-      <c r="V4" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2319,60 +2240,57 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L5" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M5" t="n">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="N5" t="n">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="O5" t="n">
-        <v>252</v>
+        <v>364</v>
       </c>
       <c r="P5" t="n">
-        <v>364</v>
+        <v>580</v>
       </c>
       <c r="Q5" t="n">
-        <v>580</v>
+        <v>803</v>
       </c>
       <c r="R5" t="n">
-        <v>803</v>
+        <v>882</v>
       </c>
       <c r="S5" t="n">
-        <v>882</v>
+        <v>820</v>
       </c>
       <c r="T5" t="n">
-        <v>820</v>
+        <v>748</v>
       </c>
       <c r="U5" t="n">
-        <v>748</v>
-      </c>
-      <c r="V5" t="n">
         <v>675</v>
       </c>
     </row>
@@ -2411,42 +2329,39 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
         <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>13</v>
+      </c>
+      <c r="R6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11</v>
+      </c>
+      <c r="T6" t="n">
         <v>8</v>
       </c>
-      <c r="Q6" t="n">
-        <v>9</v>
-      </c>
-      <c r="R6" t="n">
-        <v>13</v>
-      </c>
-      <c r="S6" t="n">
-        <v>10</v>
-      </c>
-      <c r="T6" t="n">
-        <v>11</v>
-      </c>
       <c r="U6" t="n">
-        <v>8</v>
-      </c>
-      <c r="V6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2467,60 +2382,57 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H7" t="n">
+        <v>19</v>
+      </c>
+      <c r="I7" t="n">
         <v>16</v>
       </c>
-      <c r="I7" t="n">
-        <v>19</v>
-      </c>
       <c r="J7" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N7" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="O7" t="n">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="P7" t="n">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="Q7" t="n">
-        <v>238</v>
+        <v>443</v>
       </c>
       <c r="R7" t="n">
-        <v>443</v>
+        <v>701</v>
       </c>
       <c r="S7" t="n">
-        <v>701</v>
+        <v>991</v>
       </c>
       <c r="T7" t="n">
-        <v>991</v>
+        <v>1279</v>
       </c>
       <c r="U7" t="n">
-        <v>1279</v>
-      </c>
-      <c r="V7" t="n">
         <v>1544</v>
       </c>
     </row>
@@ -2577,24 +2489,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2668,9 +2577,6 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2689,60 +2595,57 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="K10" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="L10" t="n">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="M10" t="n">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="N10" t="n">
-        <v>306</v>
+        <v>533</v>
       </c>
       <c r="O10" t="n">
-        <v>533</v>
+        <v>761</v>
       </c>
       <c r="P10" t="n">
-        <v>761</v>
+        <v>1196</v>
       </c>
       <c r="Q10" t="n">
-        <v>1196</v>
+        <v>1552</v>
       </c>
       <c r="R10" t="n">
-        <v>1552</v>
+        <v>2015</v>
       </c>
       <c r="S10" t="n">
-        <v>2015</v>
+        <v>2064</v>
       </c>
       <c r="T10" t="n">
-        <v>2064</v>
+        <v>2208</v>
       </c>
       <c r="U10" t="n">
-        <v>2208</v>
-      </c>
-      <c r="V10" t="n">
         <v>2385</v>
       </c>
     </row>
@@ -2763,60 +2666,57 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K11" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L11" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="N11" t="n">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="O11" t="n">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="P11" t="n">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="Q11" t="n">
-        <v>292</v>
+        <v>481</v>
       </c>
       <c r="R11" t="n">
-        <v>481</v>
+        <v>676</v>
       </c>
       <c r="S11" t="n">
-        <v>676</v>
+        <v>821</v>
       </c>
       <c r="T11" t="n">
-        <v>821</v>
+        <v>931</v>
       </c>
       <c r="U11" t="n">
-        <v>931</v>
-      </c>
-      <c r="V11" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -2837,60 +2737,57 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="n">
-        <v>8</v>
-      </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
       <c r="I12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15</v>
+      </c>
+      <c r="K12" t="n">
         <v>7</v>
       </c>
-      <c r="J12" t="n">
-        <v>12</v>
-      </c>
-      <c r="K12" t="n">
-        <v>15</v>
-      </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M12" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N12" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="O12" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="P12" t="n">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="Q12" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="R12" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="S12" t="n">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="T12" t="n">
         <v>98</v>
       </c>
       <c r="U12" t="n">
-        <v>98</v>
-      </c>
-      <c r="V12" t="n">
         <v>65</v>
       </c>
     </row>
@@ -2911,7 +2808,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2920,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -2929,42 +2826,39 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>5</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S13" t="n">
+        <v>13</v>
+      </c>
+      <c r="T13" t="n">
         <v>9</v>
       </c>
-      <c r="T13" t="n">
-        <v>13</v>
-      </c>
       <c r="U13" t="n">
-        <v>9</v>
-      </c>
-      <c r="V13" t="n">
         <v>22</v>
       </c>
     </row>
@@ -3000,45 +2894,42 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R14" t="n">
+        <v>10</v>
+      </c>
+      <c r="S14" t="n">
         <v>11</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>10</v>
       </c>
-      <c r="T14" t="n">
-        <v>11</v>
-      </c>
       <c r="U14" t="n">
-        <v>10</v>
-      </c>
-      <c r="V14" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3059,60 +2950,57 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L15" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M15" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="N15" t="n">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="O15" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="P15" t="n">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="Q15" t="n">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="R15" t="n">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="S15" t="n">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="T15" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="U15" t="n">
-        <v>183</v>
-      </c>
-      <c r="V15" t="n">
         <v>172</v>
       </c>
     </row>
@@ -3142,28 +3030,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" t="n">
         <v>9</v>
       </c>
-      <c r="K16" t="n">
-        <v>6</v>
-      </c>
       <c r="L16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -3184,9 +3072,6 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3207,7 +3092,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -3258,9 +3143,6 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3281,60 +3163,57 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>316</v>
+        <v>55</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
         <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7</v>
+      </c>
+      <c r="O18" t="n">
         <v>10</v>
       </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="n">
-        <v>6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>7</v>
-      </c>
-      <c r="P18" t="n">
-        <v>10</v>
-      </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
         <v>4</v>
       </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1</v>
-      </c>
       <c r="U18" t="n">
-        <v>4</v>
-      </c>
-      <c r="V18" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3355,60 +3234,57 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J19" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K19" t="n">
+        <v>42</v>
+      </c>
+      <c r="L19" t="n">
         <v>36</v>
       </c>
-      <c r="L19" t="n">
-        <v>42</v>
-      </c>
       <c r="M19" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="N19" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="O19" t="n">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="P19" t="n">
-        <v>117</v>
+        <v>256</v>
       </c>
       <c r="Q19" t="n">
-        <v>256</v>
+        <v>406</v>
       </c>
       <c r="R19" t="n">
-        <v>406</v>
+        <v>1009</v>
       </c>
       <c r="S19" t="n">
-        <v>1009</v>
+        <v>1622</v>
       </c>
       <c r="T19" t="n">
-        <v>1622</v>
+        <v>2673</v>
       </c>
       <c r="U19" t="n">
-        <v>2673</v>
-      </c>
-      <c r="V19" t="n">
         <v>5078</v>
       </c>
     </row>
@@ -3429,60 +3305,57 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G20" t="n">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="H20" t="n">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="I20" t="n">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="J20" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K20" t="n">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="L20" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M20" t="n">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N20" t="n">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="O20" t="n">
+        <v>129</v>
+      </c>
+      <c r="P20" t="n">
         <v>132</v>
       </c>
-      <c r="P20" t="n">
-        <v>129</v>
-      </c>
       <c r="Q20" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R20" t="n">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="S20" t="n">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="T20" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U20" t="n">
-        <v>119</v>
-      </c>
-      <c r="V20" t="n">
         <v>138</v>
       </c>
     </row>
@@ -3503,60 +3376,57 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
         <v>2</v>
       </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
       <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/norm.cause-of-death-2014.xlsx
+++ b/data/norm.cause-of-death-2014.xlsx
@@ -673,7 +673,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
